--- a/sieciowe/wnioski.xlsx
+++ b/sieciowe/wnioski.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\studia\sem4\sieciowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98111F4-CD7A-488C-A951-C213897ED708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E45E7-B9A7-4553-94E9-3780F4241AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{53843899-D48B-4D09-9348-5837FFA81013}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>pasazgrunwaldzki.pl</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>www.wshifen.com</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A593D20F-0625-4AFD-BD1C-3B71AD8A1E10}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J22" si="0">ROUND(G2/H2,2)</f>
+        <f t="shared" ref="J2:J23" si="0">ROUND(G2/H2,2)</f>
         <v>4.71</v>
       </c>
     </row>
@@ -1775,6 +1778,39 @@
       <c r="J22" s="15">
         <f t="shared" si="0"/>
         <v>14.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>65500</v>
+      </c>
+      <c r="C23" s="7">
+        <v>128</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/sieciowe/wnioski.xlsx
+++ b/sieciowe/wnioski.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\studia\sem4\sieciowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37E45E7-B9A7-4553-94E9-3780F4241AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA1D269-2043-4ECD-8405-920740C7CD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{53843899-D48B-4D09-9348-5837FFA81013}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53843899-D48B-4D09-9348-5837FFA81013}"/>
   </bookViews>
   <sheets>
     <sheet name="('pasazgrunwaldzki.pl', 1000, 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>pasazgrunwaldzki.pl</t>
   </si>
@@ -50,34 +50,16 @@
     <t>www.wikipedia.org</t>
   </si>
   <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maksimum</t>
-  </si>
-  <si>
     <t>avg</t>
   </si>
   <si>
     <t>lost</t>
   </si>
   <si>
-    <t>size of packets</t>
-  </si>
-  <si>
     <t>TTL</t>
   </si>
   <si>
     <t>0.0</t>
-  </si>
-  <si>
-    <t>hops from serwer</t>
-  </si>
-  <si>
-    <t>ms per hop</t>
-  </si>
-  <si>
-    <t>hops to serwer</t>
   </si>
   <si>
     <t>stratford.org</t>
@@ -88,12 +70,36 @@
   <si>
     <t>127.0.0.1</t>
   </si>
+  <si>
+    <t>hops from</t>
+  </si>
+  <si>
+    <t>hops to</t>
+  </si>
+  <si>
+    <t>ms/hf</t>
+  </si>
+  <si>
+    <t>ms/ht</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +260,34 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Monoscpace"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="39">
@@ -634,38 +668,52 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="42" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,776 +1090,880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A593D20F-0625-4AFD-BD1C-3B71AD8A1E10}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="4" width="6.77734375" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5">
+        <v>115</v>
+      </c>
+      <c r="G2" s="7">
+        <v>80</v>
+      </c>
+      <c r="H2" s="5">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5">
+        <f>ROUND(G2/H2,2)</f>
+        <v>4.71</v>
+      </c>
+      <c r="K2" s="5">
+        <f>ROUND(G2/I2,2)</f>
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>47</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5">
+        <v>97</v>
+      </c>
+      <c r="G3" s="7">
+        <v>70</v>
+      </c>
+      <c r="H3" s="5">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5">
+        <f>ROUND(G3/H3,2)</f>
+        <v>4.12</v>
+      </c>
+      <c r="K3" s="5">
+        <f>ROUND(G3/I3,2)</f>
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="5">
+        <v>47</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5">
+        <v>310</v>
+      </c>
+      <c r="G4" s="7">
+        <v>151</v>
+      </c>
+      <c r="H4" s="5">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5">
+        <f>ROUND(G4/H4,2)</f>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="K4" s="5">
+        <f>ROUND(G4/I4,2)</f>
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>50000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>144</v>
+      </c>
+      <c r="F5" s="5">
+        <v>180</v>
+      </c>
+      <c r="G5" s="7">
+        <v>160</v>
+      </c>
+      <c r="H5" s="5">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <f>ROUND(G5/H5,2)</f>
+        <v>9.41</v>
+      </c>
+      <c r="K5" s="5">
+        <f>ROUND(G5/I5,2)</f>
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="9">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>46</v>
+      </c>
+      <c r="F6" s="9">
+        <v>89</v>
+      </c>
+      <c r="G6" s="11">
+        <v>66</v>
+      </c>
+      <c r="H6" s="9">
+        <v>13</v>
+      </c>
+      <c r="I6" s="9">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9">
+        <f>ROUND(G6/H6,2)</f>
+        <v>5.08</v>
+      </c>
+      <c r="K6" s="9">
+        <f>ROUND(G6/I6,2)</f>
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9">
+        <v>74</v>
+      </c>
+      <c r="G7" s="11">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9">
+        <v>13</v>
+      </c>
+      <c r="I7" s="9">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9">
+        <f>ROUND(G7/H7,2)</f>
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K7" s="9">
+        <f>ROUND(G7/I7,2)</f>
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1472</v>
+      </c>
+      <c r="C8" s="9">
+        <v>51</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9">
+        <v>83</v>
+      </c>
+      <c r="G8" s="11">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9">
+        <v>13</v>
+      </c>
+      <c r="I8" s="9">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9">
+        <f>ROUND(G8/H8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="9">
+        <f>ROUND(G8/I8,2)</f>
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="13">
+        <v>49</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>60</v>
+      </c>
+      <c r="F9" s="13">
+        <v>140</v>
+      </c>
+      <c r="G9" s="15">
+        <v>78</v>
+      </c>
+      <c r="H9" s="13">
+        <v>15</v>
+      </c>
+      <c r="I9" s="13">
+        <v>15</v>
+      </c>
+      <c r="J9" s="13">
+        <f>ROUND(G9/H9,2)</f>
+        <v>5.2</v>
+      </c>
+      <c r="K9" s="13">
+        <f>ROUND(G9/I9,2)</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13">
+        <v>49</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>40</v>
+      </c>
+      <c r="F10" s="13">
+        <v>168</v>
+      </c>
+      <c r="G10" s="15">
+        <v>70</v>
+      </c>
+      <c r="H10" s="13">
+        <v>15</v>
+      </c>
+      <c r="I10" s="13">
+        <v>15</v>
+      </c>
+      <c r="J10" s="13">
+        <f>ROUND(G10/H10,2)</f>
+        <v>4.67</v>
+      </c>
+      <c r="K10" s="13">
+        <f>ROUND(G10/I10,2)</f>
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="13">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13">
+        <v>73</v>
+      </c>
+      <c r="F11" s="13">
+        <v>97</v>
+      </c>
+      <c r="G11" s="15">
+        <v>83</v>
+      </c>
+      <c r="H11" s="13">
+        <v>17</v>
+      </c>
+      <c r="I11" s="13">
+        <v>15</v>
+      </c>
+      <c r="J11" s="13">
+        <f>ROUND(G11/H11,2)</f>
+        <v>4.88</v>
+      </c>
+      <c r="K11" s="13">
+        <f>ROUND(G11/I11,2)</f>
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13">
+        <v>50000</v>
+      </c>
+      <c r="C12" s="13">
+        <v>48</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13">
+        <v>109</v>
+      </c>
+      <c r="F12" s="13">
+        <v>137</v>
+      </c>
+      <c r="G12" s="15">
+        <v>123</v>
+      </c>
+      <c r="H12" s="13">
+        <v>16</v>
+      </c>
+      <c r="I12" s="13">
+        <v>13</v>
+      </c>
+      <c r="J12" s="13">
+        <f>ROUND(G12/H12,2)</f>
+        <v>7.69</v>
+      </c>
+      <c r="K12" s="13">
+        <f>ROUND(G12/I12,2)</f>
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="17">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>56</v>
+      </c>
+      <c r="F13" s="17">
+        <v>96</v>
+      </c>
+      <c r="G13" s="19">
+        <v>75</v>
+      </c>
+      <c r="H13" s="17">
+        <v>15</v>
+      </c>
+      <c r="I13" s="17">
+        <v>14</v>
+      </c>
+      <c r="J13" s="17">
+        <f>ROUND(G13/H13,2)</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="17">
+        <f>ROUND(G13/I13,2)</f>
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="17">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17">
+        <v>49</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>57</v>
+      </c>
+      <c r="F14" s="17">
+        <v>85</v>
+      </c>
+      <c r="G14" s="19">
+        <v>68</v>
+      </c>
+      <c r="H14" s="17">
+        <v>15</v>
+      </c>
+      <c r="I14" s="17">
+        <v>14</v>
+      </c>
+      <c r="J14" s="17">
+        <f>ROUND(G14/H14,2)</f>
+        <v>4.53</v>
+      </c>
+      <c r="K14" s="17">
+        <f>ROUND(G14/I14,2)</f>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17">
+        <v>30000</v>
+      </c>
+      <c r="C15" s="17">
+        <v>53</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="17">
+        <v>63</v>
+      </c>
+      <c r="F15" s="17">
+        <v>93</v>
+      </c>
+      <c r="G15" s="19">
+        <v>83</v>
+      </c>
+      <c r="H15" s="17">
+        <v>11</v>
+      </c>
+      <c r="I15" s="17">
+        <v>14</v>
+      </c>
+      <c r="J15" s="17">
+        <f>ROUND(G15/H15,2)</f>
+        <v>7.55</v>
+      </c>
+      <c r="K15" s="17">
+        <f>ROUND(G15/I15,2)</f>
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B16" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="21">
+        <v>53</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="21">
+        <v>50</v>
+      </c>
+      <c r="F16" s="21">
+        <v>68</v>
+      </c>
+      <c r="G16" s="23">
+        <v>58</v>
+      </c>
+      <c r="H16" s="21">
+        <v>11</v>
+      </c>
+      <c r="I16" s="21">
+        <v>11</v>
+      </c>
+      <c r="J16" s="21">
+        <f>ROUND(G16/H16,2)</f>
+        <v>5.27</v>
+      </c>
+      <c r="K16" s="21">
+        <f>ROUND(G16/I16,2)</f>
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C17" s="21">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E17" s="21">
+        <v>45</v>
+      </c>
+      <c r="F17" s="21">
+        <v>57</v>
+      </c>
+      <c r="G17" s="23">
+        <v>50</v>
+      </c>
+      <c r="H17" s="21">
+        <v>11</v>
+      </c>
+      <c r="I17" s="21">
+        <v>11</v>
+      </c>
+      <c r="J17" s="21">
+        <f>ROUND(G17/H17,2)</f>
+        <v>4.55</v>
+      </c>
+      <c r="K17" s="21">
+        <f>ROUND(G17/I17,2)</f>
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="21">
+        <v>53</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="21">
+        <v>46</v>
+      </c>
+      <c r="F18" s="21">
+        <v>72</v>
+      </c>
+      <c r="G18" s="23">
+        <v>56</v>
+      </c>
+      <c r="H18" s="21">
+        <v>11</v>
+      </c>
+      <c r="I18" s="21">
+        <v>11</v>
+      </c>
+      <c r="J18" s="21">
+        <f>ROUND(G18/H18,2)</f>
+        <v>5.09</v>
+      </c>
+      <c r="K18" s="21">
+        <f>ROUND(G18/I18,2)</f>
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="21">
+        <v>30000</v>
+      </c>
+      <c r="C19" s="21">
+        <v>53</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21">
+        <v>77</v>
+      </c>
+      <c r="F19" s="21">
+        <v>97</v>
+      </c>
+      <c r="G19" s="23">
+        <v>84</v>
+      </c>
+      <c r="H19" s="21">
+        <v>11</v>
+      </c>
+      <c r="I19" s="21">
+        <v>11</v>
+      </c>
+      <c r="J19" s="21">
+        <f>ROUND(G19/H19,2)</f>
+        <v>7.64</v>
+      </c>
+      <c r="K19" s="21">
+        <f>ROUND(G19/I19,2)</f>
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="25">
+        <v>42</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="25">
+        <v>301</v>
+      </c>
+      <c r="F20" s="25">
+        <v>335</v>
+      </c>
+      <c r="G20" s="27">
+        <v>313</v>
+      </c>
+      <c r="H20" s="25">
+        <v>22</v>
+      </c>
+      <c r="I20" s="25">
+        <v>24</v>
+      </c>
+      <c r="J20" s="25">
+        <f>ROUND(G20/H20,2)</f>
+        <v>14.23</v>
+      </c>
+      <c r="K20" s="25">
+        <f>ROUND(G20/I20,2)</f>
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="25">
+        <v>10</v>
+      </c>
+      <c r="C21" s="25">
+        <v>45</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="25">
+        <v>316</v>
+      </c>
+      <c r="F21" s="25">
+        <v>380</v>
+      </c>
+      <c r="G21" s="27">
+        <v>339</v>
+      </c>
+      <c r="H21" s="25">
+        <v>19</v>
+      </c>
+      <c r="I21" s="25">
+        <v>26</v>
+      </c>
+      <c r="J21" s="25">
+        <f>ROUND(G21/H21,2)</f>
+        <v>17.84</v>
+      </c>
+      <c r="K21" s="25">
+        <f>ROUND(G21/I21,2)</f>
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="25">
+        <v>1472</v>
+      </c>
+      <c r="C22" s="25">
+        <v>42</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="25">
+        <v>306</v>
+      </c>
+      <c r="F22" s="25">
+        <v>333</v>
+      </c>
+      <c r="G22" s="27">
+        <v>314</v>
+      </c>
+      <c r="H22" s="25">
+        <v>22</v>
+      </c>
+      <c r="I22" s="25">
+        <v>24</v>
+      </c>
+      <c r="J22" s="25">
+        <f>ROUND(G22/H22,2)</f>
+        <v>14.27</v>
+      </c>
+      <c r="K22" s="25">
+        <f>ROUND(G22/I22,2)</f>
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="13">
+        <v>65500</v>
+      </c>
+      <c r="C23" s="13">
+        <v>128</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>63</v>
-      </c>
-      <c r="F2" s="1">
-        <v>115</v>
-      </c>
-      <c r="G2" s="1">
-        <v>80</v>
-      </c>
-      <c r="H2" s="1">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J23" si="0">ROUND(G2/H2,2)</f>
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F23" s="13">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1">
-        <v>97</v>
-      </c>
-      <c r="G3" s="1">
-        <v>70</v>
-      </c>
-      <c r="H3" s="1">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" si="0"/>
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G23" s="15">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C4" s="1">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>85</v>
-      </c>
-      <c r="F4" s="1">
-        <v>310</v>
-      </c>
-      <c r="G4" s="1">
-        <v>151</v>
-      </c>
-      <c r="H4" s="1">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>8.8800000000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>144</v>
-      </c>
-      <c r="F5" s="1">
-        <v>180</v>
-      </c>
-      <c r="G5" s="1">
-        <v>160</v>
-      </c>
-      <c r="H5" s="1">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
-        <v>9.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="4">
-        <v>51</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4">
-        <v>89</v>
-      </c>
-      <c r="G6" s="4">
-        <v>66</v>
-      </c>
-      <c r="H6" s="4">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>49</v>
-      </c>
-      <c r="F7" s="4">
-        <v>74</v>
-      </c>
-      <c r="G7" s="4">
-        <v>61</v>
-      </c>
-      <c r="H7" s="4">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1472</v>
-      </c>
-      <c r="C8" s="4">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>54</v>
-      </c>
-      <c r="F8" s="4">
-        <v>83</v>
-      </c>
-      <c r="G8" s="4">
-        <v>65</v>
-      </c>
-      <c r="H8" s="4">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C9" s="7">
-        <v>49</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7">
-        <v>140</v>
-      </c>
-      <c r="G9" s="7">
-        <v>78</v>
-      </c>
-      <c r="H9" s="7">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7">
-        <v>15</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>49</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7">
-        <v>168</v>
-      </c>
-      <c r="G10" s="7">
-        <v>70</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C11" s="7">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
-        <v>73</v>
-      </c>
-      <c r="F11" s="7">
-        <v>97</v>
-      </c>
-      <c r="G11" s="7">
-        <v>83</v>
-      </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C12" s="7">
-        <v>48</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7">
-        <v>137</v>
-      </c>
-      <c r="G12" s="7">
-        <v>123</v>
-      </c>
-      <c r="H12" s="7">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="0"/>
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="10">
-        <v>49</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>56</v>
-      </c>
-      <c r="F13" s="10">
-        <v>96</v>
-      </c>
-      <c r="G13" s="10">
-        <v>75</v>
-      </c>
-      <c r="H13" s="10">
-        <v>15</v>
-      </c>
-      <c r="I13" s="10">
-        <v>14</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10">
-        <v>49</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>57</v>
-      </c>
-      <c r="F14" s="10">
-        <v>85</v>
-      </c>
-      <c r="G14" s="10">
-        <v>68</v>
-      </c>
-      <c r="H14" s="10">
-        <v>15</v>
-      </c>
-      <c r="I14" s="10">
-        <v>14</v>
-      </c>
-      <c r="J14" s="10">
-        <f t="shared" si="0"/>
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10">
-        <v>30000</v>
-      </c>
-      <c r="C15" s="10">
-        <v>53</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="10">
-        <v>63</v>
-      </c>
-      <c r="F15" s="10">
-        <v>93</v>
-      </c>
-      <c r="G15" s="10">
-        <v>83</v>
-      </c>
-      <c r="H15" s="10">
-        <v>11</v>
-      </c>
-      <c r="I15" s="10">
-        <v>14</v>
-      </c>
-      <c r="J15" s="10">
-        <f t="shared" si="0"/>
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="12">
-        <v>53</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12">
-        <v>50</v>
-      </c>
-      <c r="F16" s="12">
-        <v>68</v>
-      </c>
-      <c r="G16" s="12">
-        <v>58</v>
-      </c>
-      <c r="H16" s="12">
-        <v>11</v>
-      </c>
-      <c r="I16" s="12">
-        <v>11</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="0"/>
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="12">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12">
-        <v>53</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12">
-        <v>45</v>
-      </c>
-      <c r="F17" s="12">
-        <v>57</v>
-      </c>
-      <c r="G17" s="12">
-        <v>50</v>
-      </c>
-      <c r="H17" s="12">
-        <v>11</v>
-      </c>
-      <c r="I17" s="12">
-        <v>11</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="0"/>
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12">
-        <v>1500</v>
-      </c>
-      <c r="C18" s="12">
-        <v>53</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12">
-        <v>46</v>
-      </c>
-      <c r="F18" s="12">
-        <v>72</v>
-      </c>
-      <c r="G18" s="12">
-        <v>56</v>
-      </c>
-      <c r="H18" s="12">
-        <v>11</v>
-      </c>
-      <c r="I18" s="12">
-        <v>11</v>
-      </c>
-      <c r="J18" s="12">
-        <f t="shared" si="0"/>
-        <v>5.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="12">
-        <v>30000</v>
-      </c>
-      <c r="C19" s="12">
-        <v>53</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12">
-        <v>77</v>
-      </c>
-      <c r="F19" s="12">
-        <v>97</v>
-      </c>
-      <c r="G19" s="12">
-        <v>84</v>
-      </c>
-      <c r="H19" s="12">
-        <v>11</v>
-      </c>
-      <c r="I19" s="12">
-        <v>11</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="0"/>
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="15">
-        <v>42</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="15">
-        <v>301</v>
-      </c>
-      <c r="F20" s="15">
-        <v>335</v>
-      </c>
-      <c r="G20" s="15">
-        <v>313</v>
-      </c>
-      <c r="H20" s="15">
-        <v>22</v>
-      </c>
-      <c r="I20" s="15">
-        <v>24</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="0"/>
-        <v>14.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="15">
-        <v>10</v>
-      </c>
-      <c r="C21" s="15">
-        <v>45</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="15">
-        <v>316</v>
-      </c>
-      <c r="F21" s="15">
-        <v>380</v>
-      </c>
-      <c r="G21" s="15">
-        <v>339</v>
-      </c>
-      <c r="H21" s="15">
-        <v>19</v>
-      </c>
-      <c r="I21" s="15">
-        <v>26</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="0"/>
-        <v>17.84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="15">
-        <v>1472</v>
-      </c>
-      <c r="C22" s="15">
-        <v>42</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="15">
-        <v>306</v>
-      </c>
-      <c r="F22" s="15">
-        <v>333</v>
-      </c>
-      <c r="G22" s="15">
-        <v>314</v>
-      </c>
-      <c r="H22" s="15">
-        <v>22</v>
-      </c>
-      <c r="I22" s="15">
-        <v>24</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="0"/>
-        <v>14.27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7">
-        <v>65500</v>
-      </c>
-      <c r="C23" s="7">
-        <v>128</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="I23" s="13">
         <v>0</v>
       </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
